--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002113847359070504</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5570</v>
+        <v>4802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001085506268810407</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006297901576459113</v>
+        <v>0.005429385026032695</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +806,7 @@
         <v>453186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449577</v>
+        <v>448732</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -815,7 +815,7 @@
         <v>0.9978861526409295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9899390099944732</v>
+        <v>0.9880780636821942</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>883416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878806</v>
+        <v>879574</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -849,7 +849,7 @@
         <v>0.9989144937311896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937020984235408</v>
+        <v>0.9945706149739673</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -957,19 +957,19 @@
         <v>7207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2779</v>
+        <v>2855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15337</v>
+        <v>16714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01181033669180478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004553055588319814</v>
+        <v>0.004678266080977497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02513220552423616</v>
+        <v>0.027388396405276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>7207</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2804</v>
+        <v>2750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16599</v>
+        <v>15590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005555450569659576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002161363048973158</v>
+        <v>0.002119486811304893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01279494814559819</v>
+        <v>0.01201660434623762</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>603048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594918</v>
+        <v>593541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>607476</v>
+        <v>607400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9881896633081952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9748677944757642</v>
+        <v>0.9726116035947241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9954469444116801</v>
+        <v>0.9953217339190226</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1232</v>
@@ -1041,19 +1041,19 @@
         <v>1290135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1280743</v>
+        <v>1281752</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1294538</v>
+        <v>1294592</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944445494303404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9872050518544014</v>
+        <v>0.9879833956537617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9978386369510269</v>
+        <v>0.9978805131886951</v>
       </c>
     </row>
     <row r="9">
@@ -1145,19 +1145,19 @@
         <v>2851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7750</v>
+        <v>8469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00418062693776276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001308770676059694</v>
+        <v>0.00131303637662488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01136584878744095</v>
+        <v>0.01242013121678204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1166,19 +1166,19 @@
         <v>20329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12555</v>
+        <v>12804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32594</v>
+        <v>31304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02859854536377006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01766256696725331</v>
+        <v>0.01801221341945573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04585199763243126</v>
+        <v>0.0440372352877107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1187,19 +1187,19 @@
         <v>23180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14824</v>
+        <v>14670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36117</v>
+        <v>35830</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01664369538450354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01064406266873807</v>
+        <v>0.0105332069973725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02593255572467329</v>
+        <v>0.02572704074329471</v>
       </c>
     </row>
     <row r="11">
@@ -1216,19 +1216,19 @@
         <v>679012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674113</v>
+        <v>673394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680971</v>
+        <v>680968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9958193730622372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.988634151212559</v>
+        <v>0.987579868783218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986912293239404</v>
+        <v>0.9986869636233751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -1237,19 +1237,19 @@
         <v>690521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>678256</v>
+        <v>679546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>698295</v>
+        <v>698046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.97140145463623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9541480023675682</v>
+        <v>0.9559627647122892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9823374330327466</v>
+        <v>0.9819877865805442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -1258,19 +1258,19 @@
         <v>1369532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1356595</v>
+        <v>1356882</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1377888</v>
+        <v>1378042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9833563046154965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9740674442753268</v>
+        <v>0.9742729592567051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893559373312619</v>
+        <v>0.9894667930026275</v>
       </c>
     </row>
     <row r="12">
@@ -1362,19 +1362,19 @@
         <v>12746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6430</v>
+        <v>6293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22997</v>
+        <v>21676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02073733060790612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0104620246741875</v>
+        <v>0.01023930798697864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03741666735461256</v>
+        <v>0.03526777791817176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1383,19 +1383,19 @@
         <v>36394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26466</v>
+        <v>25367</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51769</v>
+        <v>52283</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05906147672097963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04295107267793324</v>
+        <v>0.04116663778280161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0840138781913166</v>
+        <v>0.08484749741817973</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1404,19 +1404,19 @@
         <v>49139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34917</v>
+        <v>35654</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65287</v>
+        <v>64966</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03992403973523983</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02836925668356319</v>
+        <v>0.02896816370032914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05304356943404984</v>
+        <v>0.05278269342225685</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>601871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>591620</v>
+        <v>592941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608187</v>
+        <v>608324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9792626693920938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9625833326453875</v>
+        <v>0.964732222081829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895379753258124</v>
+        <v>0.9897606920130214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>507</v>
@@ -1454,19 +1454,19 @@
         <v>579805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>564430</v>
+        <v>563916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>589733</v>
+        <v>590832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9409385232790204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9159861218086833</v>
+        <v>0.9151525025818201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9570489273220667</v>
+        <v>0.9588333622171983</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1044</v>
@@ -1475,19 +1475,19 @@
         <v>1181677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1165529</v>
+        <v>1165850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1195899</v>
+        <v>1195162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9600759602647602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9469564305659499</v>
+        <v>0.9472173065777431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716307433164367</v>
+        <v>0.9710318362996708</v>
       </c>
     </row>
     <row r="15">
@@ -1579,19 +1579,19 @@
         <v>14681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8407</v>
+        <v>9169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23937</v>
+        <v>24255</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03418740442785659</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01957688423768278</v>
+        <v>0.02135123579629423</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05574106212744244</v>
+        <v>0.0564814501843487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1600,19 +1600,19 @@
         <v>65735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50992</v>
+        <v>52285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81111</v>
+        <v>84122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.146795359471066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1138730609486606</v>
+        <v>0.1167603458675279</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1811321351011734</v>
+        <v>0.1878555276579597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1621,19 +1621,19 @@
         <v>80416</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63903</v>
+        <v>63290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99274</v>
+        <v>97511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09167049387636136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07284637927707471</v>
+        <v>0.07214728369654901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1131679855472382</v>
+        <v>0.1111580081643253</v>
       </c>
     </row>
     <row r="17">
@@ -1650,19 +1650,19 @@
         <v>414748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>405492</v>
+        <v>405174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421022</v>
+        <v>420260</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658125955721434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9442589378725575</v>
+        <v>0.9435185498156516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9804231157623172</v>
+        <v>0.9786487642037058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>345</v>
@@ -1671,19 +1671,19 @@
         <v>382065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>366689</v>
+        <v>363678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396808</v>
+        <v>395515</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.853204640528934</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8188678648988262</v>
+        <v>0.8121444723420402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8861269390513393</v>
+        <v>0.883239654132472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -1692,19 +1692,19 @@
         <v>796813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>777955</v>
+        <v>779718</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>813326</v>
+        <v>813939</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9083295061236386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8868320144527617</v>
+        <v>0.8888419918356747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9271536207229252</v>
+        <v>0.9278527163034509</v>
       </c>
     </row>
     <row r="18">
@@ -1796,19 +1796,19 @@
         <v>41890</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29815</v>
+        <v>29758</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55338</v>
+        <v>57048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1352221986337599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09624465465985657</v>
+        <v>0.09606138793649503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1786328203078315</v>
+        <v>0.1841539454937385</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -1817,19 +1817,19 @@
         <v>67489</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54713</v>
+        <v>52770</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86443</v>
+        <v>82668</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1906498919633563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1545589425639534</v>
+        <v>0.149070708209544</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2441923091816516</v>
+        <v>0.2335276617128405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -1838,19 +1838,19 @@
         <v>109379</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90537</v>
+        <v>91015</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129061</v>
+        <v>131983</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1647818678309773</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1363957497012572</v>
+        <v>0.1371164661258399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.194432749062694</v>
+        <v>0.1988356102101775</v>
       </c>
     </row>
     <row r="20">
@@ -1867,19 +1867,19 @@
         <v>267896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254448</v>
+        <v>252738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279971</v>
+        <v>280028</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8647778013662402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8213671796921685</v>
+        <v>0.8158460545062621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9037553453401435</v>
+        <v>0.903938612063505</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -1888,19 +1888,19 @@
         <v>286507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267553</v>
+        <v>271328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299283</v>
+        <v>301226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8093501080366438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7558076908183486</v>
+        <v>0.7664723382871594</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8454410574360467</v>
+        <v>0.8509292917904558</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -1909,19 +1909,19 @@
         <v>554403</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>534721</v>
+        <v>531799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>573245</v>
+        <v>572767</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8352181321690226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8055672509373065</v>
+        <v>0.8011643897898229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8636042502987433</v>
+        <v>0.8628835338741602</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>49179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36472</v>
+        <v>36863</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63960</v>
+        <v>62434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1968350505112321</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1459751551903536</v>
+        <v>0.1475384027617342</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2559917113134981</v>
+        <v>0.2498837682281451</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -2034,19 +2034,19 @@
         <v>132880</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114232</v>
+        <v>114178</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153169</v>
+        <v>152218</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3416119175758007</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2936702977899707</v>
+        <v>0.2935314568367768</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3937709174001331</v>
+        <v>0.3913278693970522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -2055,19 +2055,19 @@
         <v>182059</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159379</v>
+        <v>158123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204025</v>
+        <v>204742</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2849886653377567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2494855911769764</v>
+        <v>0.2475193816243871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3193731808635032</v>
+        <v>0.320494923363686</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>200672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185891</v>
+        <v>187417</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213379</v>
+        <v>212988</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8031649494887679</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7440082886865016</v>
+        <v>0.7501162317718548</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8540248448096464</v>
+        <v>0.8524615972382644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>230</v>
@@ -2105,19 +2105,19 @@
         <v>256099</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>235810</v>
+        <v>236761</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274747</v>
+        <v>274801</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6583880824241993</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.606229082599867</v>
+        <v>0.6086721306029484</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7063297022100293</v>
+        <v>0.7064685431632233</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>407</v>
@@ -2126,19 +2126,19 @@
         <v>456771</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>434805</v>
+        <v>434088</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>479451</v>
+        <v>480707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7150113346622433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6806268191364971</v>
+        <v>0.6795050766363141</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7505144088230239</v>
+        <v>0.7524806183756131</v>
       </c>
     </row>
     <row r="24">
@@ -2230,19 +2230,19 @@
         <v>122307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03569140786482511</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>303</v>
@@ -2251,19 +2251,19 @@
         <v>330034</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0927503292991733</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>415</v>
@@ -2272,19 +2272,19 @@
         <v>452341</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06475808250246029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
     </row>
     <row r="26">
@@ -2301,19 +2301,19 @@
         <v>3304472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3281343</v>
+        <v>3280102</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3326309</v>
+        <v>3325115</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9643085921351749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9575588766894577</v>
+        <v>0.9571969254890377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9706808309723578</v>
+        <v>0.9703325927438551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2995</v>
@@ -2322,19 +2322,19 @@
         <v>3228275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3188093</v>
+        <v>3189108</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3259825</v>
+        <v>3261831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9072496707008267</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8959573146961428</v>
+        <v>0.8962425932204576</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9161163101759139</v>
+        <v>0.9166802171674731</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6092</v>
@@ -2343,19 +2343,19 @@
         <v>6532747</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6490868</v>
+        <v>6489091</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6577503</v>
+        <v>6574036</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9352419174975397</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9292463992168587</v>
+        <v>0.9289920400162504</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9416492054565967</v>
+        <v>0.9411529060549607</v>
       </c>
     </row>
     <row r="27">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4792</v>
+        <v>4786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00242204843575469</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01210951204468323</v>
+        <v>0.0120943420357578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3857</v>
+        <v>4821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001175805470603809</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004731768512926541</v>
+        <v>0.005914160306686101</v>
       </c>
     </row>
     <row r="5">
@@ -2766,7 +2766,7 @@
         <v>394796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390963</v>
+        <v>390969</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2775,7 +2775,7 @@
         <v>0.9975779515642453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9878904879553169</v>
+        <v>0.9879056579642422</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2787,7 +2787,7 @@
         <v>814259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>811361</v>
+        <v>810397</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2796,7 +2796,7 @@
         <v>0.9988241945293962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9952682314870734</v>
+        <v>0.9940858396933139</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2904,19 +2904,19 @@
         <v>6019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2355</v>
+        <v>2404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12681</v>
+        <v>12125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01068096843104832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004179748939834935</v>
+        <v>0.004266561706083119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02250205030749698</v>
+        <v>0.02151580348501584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2925,19 +2925,19 @@
         <v>6019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12939</v>
+        <v>12827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005215757320605986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001989624892600214</v>
+        <v>0.001981476255850043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01121229538609855</v>
+        <v>0.01111475569688988</v>
       </c>
     </row>
     <row r="8">
@@ -2967,19 +2967,19 @@
         <v>557525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>550863</v>
+        <v>551419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561189</v>
+        <v>561140</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9893190315689517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9774979496925028</v>
+        <v>0.9784841965149842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958202510601651</v>
+        <v>0.9957334382939178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1140</v>
@@ -2988,19 +2988,19 @@
         <v>1148021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1141101</v>
+        <v>1141213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151744</v>
+        <v>1151753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.994784242679394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887877046139016</v>
+        <v>0.9888852443031103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980103751074002</v>
+        <v>0.99801852374415</v>
       </c>
     </row>
     <row r="9">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9454</v>
+        <v>9093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003680088177620474</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01412937072523232</v>
+        <v>0.01358961929687212</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3113,19 +3113,19 @@
         <v>14622</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8937</v>
+        <v>8422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23651</v>
+        <v>23288</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02210744589908121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01351183671692869</v>
+        <v>0.01273391020204808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03576038342348699</v>
+        <v>0.03521140570342521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3134,19 +3134,19 @@
         <v>17084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9981</v>
+        <v>10242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26245</v>
+        <v>26390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01284037195324646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007501754712437814</v>
+        <v>0.007697807694642528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01972559301808642</v>
+        <v>0.01983476887670896</v>
       </c>
     </row>
     <row r="11">
@@ -3163,7 +3163,7 @@
         <v>666635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659643</v>
+        <v>660004</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3172,7 +3172,7 @@
         <v>0.9963199118223796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858706292747678</v>
+        <v>0.9864103807031286</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3184,19 +3184,19 @@
         <v>646764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637735</v>
+        <v>638098</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652449</v>
+        <v>652964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9778925541009188</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.964239616576513</v>
+        <v>0.9647885942965746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9864881632830713</v>
+        <v>0.9872660897979518</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1285</v>
@@ -3205,19 +3205,19 @@
         <v>1313399</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1304238</v>
+        <v>1304093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1320502</v>
+        <v>1320241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9871596280467535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9802744069819136</v>
+        <v>0.9801652311232913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9924982452875623</v>
+        <v>0.9923021923053575</v>
       </c>
     </row>
     <row r="12">
@@ -3309,19 +3309,19 @@
         <v>14290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7804</v>
+        <v>8161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25141</v>
+        <v>23622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02211874167167748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01207915428326233</v>
+        <v>0.01263233737776046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03891493027413296</v>
+        <v>0.0365644390708605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3330,19 +3330,19 @@
         <v>38249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27410</v>
+        <v>27107</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51777</v>
+        <v>50564</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05892855899042272</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04222909638823816</v>
+        <v>0.04176215370651899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07977024523835763</v>
+        <v>0.07790130067661592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -3351,19 +3351,19 @@
         <v>52539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39262</v>
+        <v>39663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68120</v>
+        <v>67375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04056669007456028</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03031484565364604</v>
+        <v>0.03062514245003672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05259715133959707</v>
+        <v>0.05202194740763189</v>
       </c>
     </row>
     <row r="14">
@@ -3380,19 +3380,19 @@
         <v>631758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>620907</v>
+        <v>622426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>638244</v>
+        <v>637887</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9778812583283225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9610850697258663</v>
+        <v>0.9634355609291396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9879208457167377</v>
+        <v>0.9873676626222395</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>566</v>
@@ -3401,19 +3401,19 @@
         <v>610828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597300</v>
+        <v>598513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>621667</v>
+        <v>621970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9410714410095773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9202297547616424</v>
+        <v>0.9220986993233842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9577709036117619</v>
+        <v>0.9582378462934811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1135</v>
@@ -3422,19 +3422,19 @@
         <v>1242586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1227005</v>
+        <v>1227750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1255863</v>
+        <v>1255462</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9594333099254397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.947402848660403</v>
+        <v>0.9479780525923681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9696851543463539</v>
+        <v>0.9693748575499636</v>
       </c>
     </row>
     <row r="15">
@@ -3526,19 +3526,19 @@
         <v>23787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15375</v>
+        <v>15014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37247</v>
+        <v>35518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04977145670493962</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0321718270542708</v>
+        <v>0.03141447451659182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07793633178735658</v>
+        <v>0.07431866446050045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -3547,19 +3547,19 @@
         <v>74757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58393</v>
+        <v>59129</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92252</v>
+        <v>92108</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1504623856630165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1175265683472222</v>
+        <v>0.1190070297288501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1856749376435192</v>
+        <v>0.1853836944634006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -3568,19 +3568,19 @@
         <v>98544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80798</v>
+        <v>79402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119038</v>
+        <v>121133</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.101094683187567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08288932584568653</v>
+        <v>0.08145697659168823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1221192905968405</v>
+        <v>0.1242682268060887</v>
       </c>
     </row>
     <row r="17">
@@ -3597,19 +3597,19 @@
         <v>454131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440671</v>
+        <v>442400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462543</v>
+        <v>462904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9502285432950603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9220636682126434</v>
+        <v>0.9256813355394995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9678281729457292</v>
+        <v>0.9685855254834081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -3618,19 +3618,19 @@
         <v>422092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>404597</v>
+        <v>404741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438456</v>
+        <v>437720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8495376143369835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8143250623564804</v>
+        <v>0.8146163055365991</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8824734316527774</v>
+        <v>0.8809929702711496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>772</v>
@@ -3639,19 +3639,19 @@
         <v>876223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>855729</v>
+        <v>853634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>893969</v>
+        <v>895365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.898905316812433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8778807094031595</v>
+        <v>0.8757317731939129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9171106741543135</v>
+        <v>0.9185430234083118</v>
       </c>
     </row>
     <row r="18">
@@ -3743,19 +3743,19 @@
         <v>22237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14149</v>
+        <v>14071</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33478</v>
+        <v>33862</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06651201420906765</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04232092243144343</v>
+        <v>0.04208663461987099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.10013430509519</v>
+        <v>0.1012822644766202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -3764,19 +3764,19 @@
         <v>78897</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63145</v>
+        <v>62549</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95731</v>
+        <v>96711</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2088533479947739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1671562861356866</v>
+        <v>0.1655786014714941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2534152654698267</v>
+        <v>0.2560094334081975</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -3785,19 +3785,19 @@
         <v>101134</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84558</v>
+        <v>82673</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122906</v>
+        <v>120230</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1420235312314664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1187456398337174</v>
+        <v>0.1160989704386331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1725979975667158</v>
+        <v>0.1688398975027769</v>
       </c>
     </row>
     <row r="20">
@@ -3814,19 +3814,19 @@
         <v>312093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>300852</v>
+        <v>300468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>320181</v>
+        <v>320259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9334879857909324</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8998656949048099</v>
+        <v>0.8987177355233795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9576790775685564</v>
+        <v>0.9579133653801285</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>280</v>
@@ -3835,19 +3835,19 @@
         <v>298865</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282031</v>
+        <v>281051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314617</v>
+        <v>315213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.791146652005226</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7465847345301734</v>
+        <v>0.7439905665918024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8328437138643133</v>
+        <v>0.8344213985285059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>583</v>
@@ -3856,19 +3856,19 @@
         <v>610958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>589186</v>
+        <v>591862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>627534</v>
+        <v>629419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8579764687685336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8274020024332841</v>
+        <v>0.8311601024972232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8812543601662824</v>
+        <v>0.8839010295613668</v>
       </c>
     </row>
     <row r="21">
@@ -3960,19 +3960,19 @@
         <v>43313</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32751</v>
+        <v>33537</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54639</v>
+        <v>55168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1685358128369429</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1274383746094667</v>
+        <v>0.1304946964231515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2126029861288785</v>
+        <v>0.2146638603431429</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -3981,19 +3981,19 @@
         <v>104163</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85659</v>
+        <v>83861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126089</v>
+        <v>124006</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2602966047801013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.214058174864598</v>
+        <v>0.2095630044874386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3150891103903161</v>
+        <v>0.3098846357871886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -4002,19 +4002,19 @@
         <v>147476</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126416</v>
+        <v>126479</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171266</v>
+        <v>172265</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2244117534595885</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1923657842451955</v>
+        <v>0.1924616666778211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2606128267870877</v>
+        <v>0.2621322561102186</v>
       </c>
     </row>
     <row r="23">
@@ -4031,19 +4031,19 @@
         <v>213685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>202359</v>
+        <v>201830</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>224247</v>
+        <v>223461</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.831464187163057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7873970138711216</v>
+        <v>0.7853361396568571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8725616253905333</v>
+        <v>0.8695053035768485</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>222</v>
@@ -4052,19 +4052,19 @@
         <v>296006</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>274080</v>
+        <v>276163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>314510</v>
+        <v>316308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7397033952198987</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6849108896096839</v>
+        <v>0.6901153642128113</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.785941825135402</v>
+        <v>0.7904369955125613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>474</v>
@@ -4073,19 +4073,19 @@
         <v>509691</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>485901</v>
+        <v>484902</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>530751</v>
+        <v>530688</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7755882465404115</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7393871732129123</v>
+        <v>0.7378677438897814</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8076342157548045</v>
+        <v>0.8075383333221788</v>
       </c>
     </row>
     <row r="24">
@@ -4177,19 +4177,19 @@
         <v>106089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03125461545646276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>277</v>
@@ -4198,19 +4198,19 @@
         <v>317665</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08962089871253845</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>384</v>
@@ -4219,19 +4219,19 @@
         <v>423754</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06106942337186406</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
     </row>
     <row r="26">
@@ -4248,19 +4248,19 @@
         <v>3288261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3266611</v>
+        <v>3265690</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3307176</v>
+        <v>3307533</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9687453845435372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.962367216667224</v>
+        <v>0.9620958379412766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9743178142401151</v>
+        <v>0.9744230539391879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3061</v>
@@ -4269,19 +4269,19 @@
         <v>3226877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3188022</v>
+        <v>3187064</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3263034</v>
+        <v>3258584</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9103791012874616</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8994172637637066</v>
+        <v>0.8991468572358657</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9205800016610244</v>
+        <v>0.9193245019578256</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6185</v>
@@ -4290,19 +4290,19 @@
         <v>6515138</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6469806</v>
+        <v>6472111</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6556360</v>
+        <v>6552768</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9389305766281359</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9323975394465313</v>
+        <v>0.9327296797586631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9448713314697027</v>
+        <v>0.9443536747249188</v>
       </c>
     </row>
     <row r="27">
@@ -4650,19 +4650,19 @@
         <v>6700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17860</v>
+        <v>17469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01848215903523331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005517916754347294</v>
+        <v>0.005548845017923224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0492672561490128</v>
+        <v>0.04818976816961971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4671,19 +4671,19 @@
         <v>6700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17953</v>
+        <v>17521</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008697858181172654</v>
+        <v>0.008697858181172653</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002631481672398895</v>
+        <v>0.002606835330774176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02330696333048479</v>
+        <v>0.02274518812646576</v>
       </c>
     </row>
     <row r="5">
@@ -4713,19 +4713,19 @@
         <v>355812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>344652</v>
+        <v>345043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360512</v>
+        <v>360500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9815178409647667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9507327438509869</v>
+        <v>0.9518102318303804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9944820832456528</v>
+        <v>0.9944511549820768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -4734,19 +4734,19 @@
         <v>763605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752352</v>
+        <v>752784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768278</v>
+        <v>768297</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9913021418188275</v>
+        <v>0.9913021418188273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9766930366695152</v>
+        <v>0.9772548118735345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973685183276012</v>
+        <v>0.9973931646692259</v>
       </c>
     </row>
     <row r="6">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8894</v>
+        <v>8460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005381650137324784</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01864933350681834</v>
+        <v>0.01773889666561855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4859,19 +4859,19 @@
         <v>14131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8390</v>
+        <v>7046</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23508</v>
+        <v>23177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0281646455471643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01672145324691302</v>
+        <v>0.01404396149852597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04685305896621916</v>
+        <v>0.04619310306353486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -4880,19 +4880,19 @@
         <v>16698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10166</v>
+        <v>9191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26518</v>
+        <v>26855</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01706232102739439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01038771912381734</v>
+        <v>0.009391907498291694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02709693814775703</v>
+        <v>0.02744179426645022</v>
       </c>
     </row>
     <row r="8">
@@ -4909,16 +4909,16 @@
         <v>474324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467996</v>
+        <v>468430</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9946183498626751</v>
+        <v>0.9946183498626754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9813506664931818</v>
+        <v>0.9822611033343813</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4930,19 +4930,19 @@
         <v>487602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478225</v>
+        <v>478556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493343</v>
+        <v>494687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9718353544528355</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9531469410337817</v>
+        <v>0.9538068969364651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.983278546753087</v>
+        <v>0.985956038501474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -4951,19 +4951,19 @@
         <v>961925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952105</v>
+        <v>951768</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968457</v>
+        <v>969432</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9829376789726055</v>
+        <v>0.9829376789726056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972903061852243</v>
+        <v>0.9725582057335499</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9896122808761828</v>
+        <v>0.9906080925017083</v>
       </c>
     </row>
     <row r="9">
@@ -5055,19 +5055,19 @@
         <v>17639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10095</v>
+        <v>10330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28933</v>
+        <v>28281</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02841088088927275</v>
+        <v>0.02841088088927276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01626030683554463</v>
+        <v>0.01663907510831238</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04660308603624459</v>
+        <v>0.04555374981779006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5076,19 +5076,19 @@
         <v>27954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20195</v>
+        <v>20196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37927</v>
+        <v>38825</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04485596771515671</v>
+        <v>0.0448559677151567</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03240562590528609</v>
+        <v>0.03240675640945384</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06085925260475429</v>
+        <v>0.06230023016978975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -5097,19 +5097,19 @@
         <v>45592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34644</v>
+        <v>33954</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59306</v>
+        <v>60217</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03664899524645799</v>
+        <v>0.03664899524645798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0278480360927373</v>
+        <v>0.02729366851053086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04767224167429587</v>
+        <v>0.04840493955355517</v>
       </c>
     </row>
     <row r="11">
@@ -5126,19 +5126,19 @@
         <v>603198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591904</v>
+        <v>592556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610742</v>
+        <v>610507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9715891191107272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9533969139637556</v>
+        <v>0.9544462501822107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837396931644555</v>
+        <v>0.9833609248916879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -5147,19 +5147,19 @@
         <v>595239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585266</v>
+        <v>584368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602998</v>
+        <v>602997</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9551440322848432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9391407473952456</v>
+        <v>0.9376997698302103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9675943740947139</v>
+        <v>0.9675932435905463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1341</v>
@@ -5168,19 +5168,19 @@
         <v>1198437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1184723</v>
+        <v>1183812</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1209385</v>
+        <v>1210075</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.963351004753542</v>
+        <v>0.9633510047535419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9523277583257044</v>
+        <v>0.9515950604464447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9721519639072627</v>
+        <v>0.9727063314894691</v>
       </c>
     </row>
     <row r="12">
@@ -5272,19 +5272,19 @@
         <v>40086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29507</v>
+        <v>28669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56187</v>
+        <v>56111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05721512711610301</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04211620674059387</v>
+        <v>0.04091975467543198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08019653237899201</v>
+        <v>0.08008789983490902</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -5293,19 +5293,19 @@
         <v>85972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72757</v>
+        <v>72316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100214</v>
+        <v>99562</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1166695056265152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09873588937090971</v>
+        <v>0.09813704875196931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1359968357463601</v>
+        <v>0.1351124415280123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -5314,19 +5314,19 @@
         <v>126058</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107157</v>
+        <v>106197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146828</v>
+        <v>142447</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08769235406813208</v>
+        <v>0.0876923540681321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07454383493040222</v>
+        <v>0.07387565881187683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1021407674764479</v>
+        <v>0.09909362049529645</v>
       </c>
     </row>
     <row r="14">
@@ -5343,19 +5343,19 @@
         <v>660531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>644430</v>
+        <v>644506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>671110</v>
+        <v>671948</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9427848728838971</v>
+        <v>0.942784872883897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.919803467621008</v>
+        <v>0.9199121001650908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9578837932594061</v>
+        <v>0.9590802453245678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1009</v>
@@ -5364,19 +5364,19 @@
         <v>650914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636672</v>
+        <v>637324</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>664129</v>
+        <v>664570</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8833304943734848</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8640031642536401</v>
+        <v>0.8648875584719878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9012641106290903</v>
+        <v>0.9018629512480306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1636</v>
@@ -5385,19 +5385,19 @@
         <v>1311446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1290676</v>
+        <v>1295057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1330347</v>
+        <v>1331307</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9123076459318679</v>
+        <v>0.9123076459318678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8978592325235519</v>
+        <v>0.9009063795047038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9254561650695977</v>
+        <v>0.9261243411881238</v>
       </c>
     </row>
     <row r="15">
@@ -5489,19 +5489,19 @@
         <v>52449</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41071</v>
+        <v>40801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65564</v>
+        <v>66935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08607469521780572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06740213425979809</v>
+        <v>0.06695805089270007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1075966452871682</v>
+        <v>0.1098472560758191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>175</v>
@@ -5510,19 +5510,19 @@
         <v>108007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94275</v>
+        <v>94991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124640</v>
+        <v>124969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.17739302326479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1548398322934676</v>
+        <v>0.1560151078421434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2047123204116861</v>
+        <v>0.2052531029767918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -5531,19 +5531,19 @@
         <v>160456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>142185</v>
+        <v>142552</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184212</v>
+        <v>181688</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1317154545453638</v>
+        <v>0.1317154545453637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1167170320883821</v>
+        <v>0.1170184968445021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1512164235192949</v>
+        <v>0.1491445751982222</v>
       </c>
     </row>
     <row r="17">
@@ -5560,19 +5560,19 @@
         <v>556897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>543782</v>
+        <v>542411</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>568275</v>
+        <v>568545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9139253047821941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8924033547128319</v>
+        <v>0.8901527439241808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.932597865740202</v>
+        <v>0.9330419491072995</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>827</v>
@@ -5581,19 +5581,19 @@
         <v>500848</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>484215</v>
+        <v>483886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>514580</v>
+        <v>513864</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8226069767352099</v>
+        <v>0.82260697673521</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7952876795883141</v>
+        <v>0.7947468970232084</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8451601677065327</v>
+        <v>0.8439848921578565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1429</v>
@@ -5602,19 +5602,19 @@
         <v>1057746</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1033990</v>
+        <v>1036514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1076017</v>
+        <v>1075650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8682845454546363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8487835764807051</v>
+        <v>0.8508554248017777</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8832829679116178</v>
+        <v>0.8829815031554981</v>
       </c>
     </row>
     <row r="18">
@@ -5706,19 +5706,19 @@
         <v>49488</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40130</v>
+        <v>39158</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61929</v>
+        <v>61175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1215679896332397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09857980049880785</v>
+        <v>0.09619238626864828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1521292661999025</v>
+        <v>0.1502764352758767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -5727,19 +5727,19 @@
         <v>112134</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>99334</v>
+        <v>97569</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>125464</v>
+        <v>125010</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2553329259573964</v>
+        <v>0.2553329259573963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2261877908930381</v>
+        <v>0.2221683742539402</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2856867308953142</v>
+        <v>0.2846542319346495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -5748,19 +5748,19 @@
         <v>161621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143979</v>
+        <v>144415</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>179321</v>
+        <v>178687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1909863891178005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1701388022989411</v>
+        <v>0.1706534008054151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2119014314422605</v>
+        <v>0.2111530404488887</v>
       </c>
     </row>
     <row r="20">
@@ -5777,19 +5777,19 @@
         <v>357592</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>345151</v>
+        <v>345905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>366950</v>
+        <v>367922</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8784320103667602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8478707338000974</v>
+        <v>0.8497235647241232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9014201995011919</v>
+        <v>0.9038076137313518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>625</v>
@@ -5798,19 +5798,19 @@
         <v>327032</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313702</v>
+        <v>314156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>339832</v>
+        <v>341597</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7446670740426038</v>
+        <v>0.7446670740426037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7143132691046856</v>
+        <v>0.7153457680653503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7738122091069616</v>
+        <v>0.7778316257460597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1118</v>
@@ -5819,19 +5819,19 @@
         <v>684625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>666925</v>
+        <v>667559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702267</v>
+        <v>701831</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8090136108821995</v>
+        <v>0.8090136108821996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7880985685577395</v>
+        <v>0.7888469595511113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8298611977010592</v>
+        <v>0.8293465991945849</v>
       </c>
     </row>
     <row r="21">
@@ -5923,19 +5923,19 @@
         <v>84473</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72790</v>
+        <v>71263</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97340</v>
+        <v>96743</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2723187990092244</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2346562108532683</v>
+        <v>0.2297341707523771</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3137988442787502</v>
+        <v>0.3118746651828807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>404</v>
@@ -5944,19 +5944,19 @@
         <v>206769</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192194</v>
+        <v>190145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222614</v>
+        <v>222307</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4450388576567673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4136680757891122</v>
+        <v>0.4092591580660109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4791419014435738</v>
+        <v>0.4784825273641409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>535</v>
@@ -5965,19 +5965,19 @@
         <v>291242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>268913</v>
+        <v>268220</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>312527</v>
+        <v>310349</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3758894356104928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3470714975169943</v>
+        <v>0.3461769762689219</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4033610684420642</v>
+        <v>0.4005501041892879</v>
       </c>
     </row>
     <row r="23">
@@ -5994,19 +5994,19 @@
         <v>225725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>212858</v>
+        <v>213455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>237408</v>
+        <v>238935</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7276812009907754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6862011557212497</v>
+        <v>0.6881253348171195</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7653437891467317</v>
+        <v>0.7702658292476229</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>477</v>
@@ -6015,19 +6015,19 @@
         <v>257840</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>241995</v>
+        <v>242302</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>272415</v>
+        <v>274464</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5549611423432327</v>
+        <v>0.5549611423432326</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5208580985564263</v>
+        <v>0.5215174726358591</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5863319242108878</v>
+        <v>0.5907408419339892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>804</v>
@@ -6036,19 +6036,19 @@
         <v>483565</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>462280</v>
+        <v>464458</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>505894</v>
+        <v>506587</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6241105643895072</v>
+        <v>0.6241105643895071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5966389315579359</v>
+        <v>0.5994498958107121</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6529285024830055</v>
+        <v>0.6538230237310781</v>
       </c>
     </row>
     <row r="24">
@@ -6140,19 +6140,19 @@
         <v>246701</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0698322980553981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>968</v>
@@ -6161,19 +6161,19 @@
         <v>561666</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1503006139633613</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1292</v>
@@ -6182,19 +6182,19 @@
         <v>808367</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="26">
@@ -6211,19 +6211,19 @@
         <v>3286061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3256692</v>
+        <v>3257637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3313452</v>
+        <v>3312998</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9301677019446021</v>
+        <v>0.930167701944602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9218543193471028</v>
+        <v>0.922121874847009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9379210868909413</v>
+        <v>0.9377927070059912</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4399</v>
@@ -6232,19 +6232,19 @@
         <v>3175288</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3140033</v>
+        <v>3140442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3209798</v>
+        <v>3210314</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8496993860366387</v>
+        <v>0.8496993860366386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8402652676071979</v>
+        <v>0.8403748403629937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8589341804510526</v>
+        <v>0.8590723901944137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7451</v>
@@ -6253,19 +6253,19 @@
         <v>6461349</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6416359</v>
+        <v>6415972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6506992</v>
+        <v>6505560</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8888034443457966</v>
+        <v>0.8888034443457963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8826147900130583</v>
+        <v>0.8825616221827347</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8950819810601716</v>
+        <v>0.8948849995937415</v>
       </c>
     </row>
     <row r="27">
